--- a/data/trans_dic/P1805-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P1805-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,68; 7,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 1,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 9,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 4,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 7,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 3,29</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,36; 2,03</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 5,19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,35</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 4,38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 3,84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 2,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 3,98</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,21</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 2,64</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 3,45</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,21</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 4,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 4,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 3,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 3,74</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 2,44</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 6,09</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 4,5</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 6,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 3,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 5,79</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,21</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 3,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 6,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0; 0,19</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 6,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 6,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 5,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 6,18</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>1,39; 2,31</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 4,14</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 4,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 4,88</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 3,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 4,31</t>
         </is>
       </c>
     </row>
@@ -1078,14 +1493,14 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1805-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,77</t>
+          <t>0,56; 2,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,13</t>
+          <t>1,44; 4,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 9,75</t>
+          <t>1,66; 4,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,35</t>
+          <t>1,78; 3,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,0</t>
+          <t>1,31; 2,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,29</t>
+          <t>1,86; 3,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,03</t>
+          <t>1,0; 2,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,19</t>
+          <t>0,78; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,38</t>
+          <t>2,26; 4,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,84</t>
+          <t>2,8; 4,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,76</t>
+          <t>1,81; 3,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,98</t>
+          <t>1,79; 3,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,64</t>
+          <t>0,77; 2,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,45</t>
+          <t>2,3; 6,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,67</t>
+          <t>1,86; 4,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,87</t>
+          <t>2,01; 6,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,22</t>
+          <t>1,53; 3,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,74</t>
+          <t>2,5; 5,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,44</t>
+          <t>1,76; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,09</t>
+          <t>3,67; 6,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,5</t>
+          <t>3,93; 6,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,93</t>
+          <t>3,63; 6,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,0</t>
+          <t>3,25; 5,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,79</t>
+          <t>4,01; 6,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,95</t>
+          <t>1,39; 2,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,74</t>
+          <t>2,38; 3,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,89</t>
+          <t>3,07; 4,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,56</t>
+          <t>3,26; 4,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,09</t>
+          <t>2,37; 3,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 6,18</t>
+          <t>3,02; 4,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 4,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 4,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 4,88</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 3,22</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 4,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1805-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,33</t>
+          <t>0,49; 2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,14</t>
+          <t>1,38; 4,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,36</t>
+          <t>1,7; 4,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,47</t>
+          <t>1,75; 3,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,91</t>
+          <t>1,37; 2,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,51</t>
+          <t>1,85; 3,53</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,64</t>
+          <t>0,91; 2,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,96</t>
+          <t>0,83; 2,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,67</t>
+          <t>2,33; 4,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,91</t>
+          <t>2,73; 4,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,22</t>
+          <t>1,85; 3,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,5</t>
+          <t>1,68; 3,37</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,44</t>
+          <t>0,68; 2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,26</t>
+          <t>2,24; 6,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,5</t>
+          <t>1,81; 4,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,18</t>
+          <t>2,04; 6,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,0</t>
+          <t>1,51; 3,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,39</t>
+          <t>2,63; 5,54</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,95</t>
+          <t>1,75; 4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,99</t>
+          <t>3,63; 7,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,89</t>
+          <t>3,87; 6,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,23</t>
+          <t>3,6; 6,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,09</t>
+          <t>3,23; 5,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,06</t>
+          <t>4,0; 6,1</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,31</t>
+          <t>1,39; 2,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,98</t>
+          <t>2,4; 4,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 4,4</t>
+          <t>3,05; 4,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,64</t>
+          <t>3,1; 4,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,22</t>
+          <t>2,38; 3,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,16</t>
+          <t>3,08; 4,18</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un psicologo o psicoterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8407</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15900</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18691</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17342</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27098</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33242</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3318; 15688</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8770; 26785</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11467; 29553</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11825; 24476</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18495; 39727</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24317; 46266</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16424</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21454</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34487</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35464</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50911</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56918</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9335; 25912</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9879; 35171</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24302; 51068</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26110; 46010</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2054</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38190; 68662</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36072; 72503</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10476</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26654</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22967</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38742</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33443</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65396</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2108</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5187; 19399</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15815; 43626</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14225; 34711</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18997; 57037</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23247; 46601</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43107; 90649</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25756</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46916</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54794</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53262</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80550</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100178</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1818</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16389; 38561</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33660; 65391</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40433; 71839</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39384; 67259</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1910</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>64007; 100434</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80766; 123344</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>110924</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>130939</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>144810</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>192002</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>255734</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>47072; 77007</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83140; 139200</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>108211; 154030</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>113627; 170815</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>165041; 219583</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>219530; 297898</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>